--- a/tests/test.xlsx
+++ b/tests/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Работа\Проекты\Тестовое\test_project\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Работа\Проекты\Тестовое\test_task_rep\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0764160A-4FE8-4F08-A9DE-CD57F57CC924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95C98CF-5E1C-487B-9232-E81FBA509E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2436" yWindow="1512" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,7 +385,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test.xlsx
+++ b/tests/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Работа\Проекты\Тестовое\test_task_rep\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95C98CF-5E1C-487B-9232-E81FBA509E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCD5106-5A1E-4799-AF00-764AE85697DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2436" yWindow="1512" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,16 +27,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>type_id</t>
+    <t>name</t>
   </si>
   <si>
-    <t>material_name</t>
+    <t>price</t>
   </si>
   <si>
-    <t>material_price</t>
+    <t>category</t>
   </si>
   <si>
-    <t>privet</t>
+    <t>Воздушный фильтр воображаемый</t>
   </si>
 </sst>
 </file>
@@ -362,24 +362,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" customWidth="1"/>
     <col min="3" max="3" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
